--- a/results/mp/tinybert/dilemma/confidence/84/stop-words-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/84/stop-words-0.35/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="62">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,103 +40,103 @@
     <t>name</t>
   </si>
   <si>
+    <t>evil</t>
+  </si>
+  <si>
     <t>creepy</t>
   </si>
   <si>
     <t>horrible</t>
   </si>
   <si>
+    <t>terrifying</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
     <t>illegal</t>
   </si>
   <si>
-    <t>terrifying</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>evil</t>
+    <t>uncomfortable</t>
+  </si>
+  <si>
+    <t>worst</t>
   </si>
   <si>
     <t>dangerous</t>
   </si>
   <si>
-    <t>worst</t>
+    <t>boring</t>
+  </si>
+  <si>
+    <t>guilty</t>
+  </si>
+  <si>
+    <t>disturbing</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>addicted</t>
+  </si>
+  <si>
+    <t>scary</t>
   </si>
   <si>
     <t>stupid</t>
   </si>
   <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
-    <t>worse</t>
-  </si>
-  <si>
-    <t>disturbing</t>
-  </si>
-  <si>
-    <t>addicted</t>
-  </si>
-  <si>
-    <t>guilty</t>
+    <t>frightening</t>
   </si>
   <si>
     <t>hate</t>
   </si>
   <si>
-    <t>sorry</t>
-  </si>
-  <si>
-    <t>dumb</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>scary</t>
-  </si>
-  <si>
-    <t>frightening</t>
+    <t>fucking</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>fucked</t>
   </si>
   <si>
     <t>fuck</t>
   </si>
   <si>
-    <t>shocking</t>
+    <t>behind</t>
+  </si>
+  <si>
+    <t>shit</t>
   </si>
   <si>
     <t>seriously</t>
   </si>
   <si>
-    <t>behind</t>
-  </si>
-  <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
     <t>crazy</t>
   </si>
   <si>
     <t>serious</t>
   </si>
   <si>
-    <t>shit</t>
-  </si>
-  <si>
     <t>bad</t>
   </si>
   <si>
+    <t>dark</t>
+  </si>
+  <si>
     <t>fake</t>
   </si>
   <si>
+    <t>amazing</t>
+  </si>
+  <si>
     <t>excellent</t>
   </si>
   <si>
-    <t>amazing</t>
+    <t>best</t>
   </si>
   <si>
     <t>brilliant</t>
@@ -145,58 +145,55 @@
     <t>great</t>
   </si>
   <si>
-    <t>best</t>
+    <t>happy</t>
   </si>
   <si>
     <t>interesting</t>
   </si>
   <si>
+    <t>powerful</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>better</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>powerful</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
+    <t>first</t>
+  </si>
+  <si>
     <t>many</t>
   </si>
   <si>
+    <t>worth</t>
+  </si>
+  <si>
     <t>wow</t>
   </si>
   <si>
-    <t>right</t>
-  </si>
-  <si>
     <t>new</t>
   </si>
   <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>really</t>
+    <t>much</t>
   </si>
   <si>
     <t>social</t>
   </si>
   <si>
+    <t>documentary</t>
+  </si>
+  <si>
     <t>media</t>
   </si>
   <si>
-    <t>’</t>
+    <t>netflix</t>
   </si>
   <si>
     <t>…</t>
@@ -560,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q33"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -571,7 +568,7 @@
         <v>12</v>
       </c>
       <c r="J1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -632,10 +629,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -650,16 +647,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="M3">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -682,10 +679,10 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D4">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -700,16 +697,16 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="L4">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="M4">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -721,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -729,13 +726,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9134615384615384</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>95</v>
+        <v>6</v>
       </c>
       <c r="D5">
-        <v>95</v>
+        <v>6</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -747,19 +744,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K5">
-        <v>0.9090909090909091</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L5">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="M5">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -771,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -779,13 +776,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9090909090909091</v>
+        <v>0.8939393939393939</v>
       </c>
       <c r="C6">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D6">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -797,19 +794,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K6">
-        <v>0.88</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L6">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="M6">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -821,7 +818,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -850,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K7">
-        <v>0.7666666666666667</v>
+        <v>0.76</v>
       </c>
       <c r="L7">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="M7">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -871,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -879,13 +876,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8461538461538461</v>
+        <v>0.875</v>
       </c>
       <c r="C8">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="D8">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -897,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K8">
-        <v>0.7017543859649122</v>
+        <v>0.7</v>
       </c>
       <c r="L8">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="M8">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -921,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -929,13 +926,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8421052631578947</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C9">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D9">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -947,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K9">
-        <v>0.6206896551724138</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="L9">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="M9">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -971,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1000,16 +997,16 @@
         <v>5</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K10">
-        <v>0.6</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="L10">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="M10">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1021,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1029,13 +1026,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8333333333333334</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C11">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D11">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1047,19 +1044,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K11">
-        <v>0.5555555555555556</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="L11">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="M11">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1071,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>8</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1079,13 +1076,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="C12">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D12">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1097,19 +1094,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K12">
-        <v>0.5333333333333333</v>
+        <v>0.52</v>
       </c>
       <c r="L12">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="M12">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1121,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1129,7 +1126,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.75</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C13">
         <v>6</v>
@@ -1147,19 +1144,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K13">
-        <v>0.52</v>
+        <v>0.4482758620689655</v>
       </c>
       <c r="L13">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M13">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1171,7 +1168,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1179,13 +1176,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6875</v>
+        <v>0.625</v>
       </c>
       <c r="C14">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D14">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1197,19 +1194,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K14">
-        <v>0.4736842105263158</v>
+        <v>0.3703703703703703</v>
       </c>
       <c r="L14">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M14">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1221,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1229,13 +1226,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.675</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="C15">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="D15">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1247,13 +1244,13 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K15">
-        <v>0.3333333333333333</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="L15">
         <v>9</v>
@@ -1271,7 +1268,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1279,13 +1276,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6666666666666666</v>
+        <v>0.575</v>
       </c>
       <c r="C16">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D16">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1297,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K16">
-        <v>0.1951219512195122</v>
+        <v>0.2682926829268293</v>
       </c>
       <c r="L16">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="M16">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1321,7 +1318,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1329,13 +1326,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.65</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="C17">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="D17">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1347,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K17">
-        <v>0.1666666666666667</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="L17">
         <v>8</v>
@@ -1371,7 +1368,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>40</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1379,13 +1376,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6363636363636364</v>
+        <v>0.5</v>
       </c>
       <c r="C18">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D18">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1397,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K18">
-        <v>0.1296296296296296</v>
+        <v>0.1458333333333333</v>
       </c>
       <c r="L18">
         <v>7</v>
@@ -1421,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1429,7 +1426,7 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.6</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="C19">
         <v>6</v>
@@ -1447,19 +1444,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K19">
-        <v>0.1186440677966102</v>
+        <v>0.1355932203389831</v>
       </c>
       <c r="L19">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M19">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1471,7 +1468,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1479,13 +1476,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5882352941176471</v>
+        <v>0.45</v>
       </c>
       <c r="C20">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D20">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1497,19 +1494,19 @@
         <v>0</v>
       </c>
       <c r="H20">
+        <v>11</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K20">
+        <v>0.1076923076923077</v>
+      </c>
+      <c r="L20">
         <v>7</v>
       </c>
-      <c r="J20" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K20">
-        <v>0.08450704225352113</v>
-      </c>
-      <c r="L20">
-        <v>6</v>
-      </c>
       <c r="M20">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1521,7 +1518,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1529,13 +1526,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5072463768115942</v>
+        <v>0.4375</v>
       </c>
       <c r="C21">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="D21">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1547,19 +1544,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>68</v>
+        <v>9</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K21">
-        <v>0.07368421052631578</v>
+        <v>0.09107468123861566</v>
       </c>
       <c r="L21">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="M21">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1571,7 +1568,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>88</v>
+        <v>998</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1579,13 +1576,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4615384615384616</v>
+        <v>0.375</v>
       </c>
       <c r="C22">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D22">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1597,19 +1594,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K22">
-        <v>0.07285974499089254</v>
+        <v>0.03886925795053003</v>
       </c>
       <c r="L22">
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="M22">
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1621,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>1018</v>
+        <v>272</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1629,13 +1626,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4347826086956522</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="C23">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D23">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1647,19 +1644,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K23">
-        <v>0.01656626506024097</v>
+        <v>0.02710843373493976</v>
       </c>
       <c r="L23">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="M23">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1671,7 +1668,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>653</v>
+        <v>646</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1679,13 +1676,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4285714285714285</v>
+        <v>0.3478260869565217</v>
       </c>
       <c r="C24">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D24">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1697,19 +1694,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K24">
-        <v>0.008962868117797696</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="L24">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="M24">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1721,7 +1718,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>774</v>
+        <v>531</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1729,13 +1726,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4285714285714285</v>
+        <v>0.3461538461538461</v>
       </c>
       <c r="C25">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D25">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1747,19 +1744,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K25">
-        <v>0.00576036866359447</v>
+        <v>0.003456221198156682</v>
       </c>
       <c r="L25">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M25">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1771,7 +1768,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>1726</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1779,13 +1776,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.3846153846153846</v>
+        <v>0.3404255319148936</v>
       </c>
       <c r="C26">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D26">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1797,7 +1794,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1805,13 +1802,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.375</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="C27">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D27">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1823,7 +1820,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1831,13 +1828,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.375</v>
+        <v>0.3142857142857143</v>
       </c>
       <c r="C28">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D28">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1849,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1857,13 +1854,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.3714285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C29">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D29">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1875,7 +1872,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1883,13 +1880,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.3333333333333333</v>
+        <v>0.2564102564102564</v>
       </c>
       <c r="C30">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D30">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1901,7 +1898,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1909,13 +1906,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.3191489361702128</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="C31">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D31">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1927,7 +1924,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1935,13 +1932,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.282051282051282</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="C32">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D32">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1953,33 +1950,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33">
-        <v>0.1282051282051282</v>
-      </c>
-      <c r="C33">
-        <v>10</v>
-      </c>
-      <c r="D33">
-        <v>10</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
